--- a/code/CPS_Solution/CPS_Solution/App_Data/uploads/LaptopError.xlsx
+++ b/code/CPS_Solution/CPS_Solution/App_Data/uploads/LaptopError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="9555" windowHeight="6720"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">Danh sách máy tính </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+  <si>
+    <t>750GB</t>
   </si>
   <si>
     <t>STT</t>
@@ -45,83 +45,215 @@
     <t>RAM</t>
   </si>
   <si>
-    <t>Intel Core i5-4200U</t>
-  </si>
-  <si>
-    <t>Asus P550LD</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/68094/Kit/Asus-P550L-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GT 820M</t>
-  </si>
-  <si>
-    <t>1366 x 768</t>
-  </si>
-  <si>
-    <t>Dell Inspiron 3521</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>FUJITSU LH 531</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130204590649077068.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4820K</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 640 (GK208)</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t>14.0''</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/</t>
+  </si>
+  <si>
+    <t>Toshiba Qosmio X70</t>
   </si>
   <si>
     <t>http://cdn.tgdd.vn/Products/Images/44/57994/Kit/Dell-Inspiron-3521-33214G50-bo-ban-hang-800x496-chuan.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel Core i3-3217U </t>
-  </si>
-  <si>
-    <t>Intel HD Graphics 4000</t>
-  </si>
-  <si>
-    <t>Intel Core i3-3217U</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/61374/Kit/sony-vaio-fit-svf1421qsg-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/60253/Kit/Sony-Vaio-Fit-SVF14217SG-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>Intel Core i3-3227U</t>
-  </si>
-  <si>
-    <t>1367 x 768</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce GT 740M</t>
-  </si>
-  <si>
-    <t>Acer Aspire P3 171</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sony Vaio Fit SVF14217SG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sony Vaio Fit SVF1421QSG </t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/59352/Kit/acer-aspire-p3-bo-ban-hang-800x496-chuan.jpg</t>
-  </si>
-  <si>
-    <t>Intel Core i5 3339Y</t>
-  </si>
-  <si>
-    <t>1368 x 768</t>
-  </si>
-  <si>
-    <t>http://cdn.tgdd.vn/Products/Images/44/59352/Kit/acer-aspire-p3-bo-ban-hang-800x496-chuan.abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-2630QM </t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaa</t>
+    <t xml:space="preserve">Intel Core i7-3770K </t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 640 (GDDR5)</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshiba Portege Z930-2036 (PT234L-07905)  </t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/portege-z930-hero.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-2700K </t>
+  </si>
+  <si>
+    <t>ATI Radeon HD 5850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 GB SSD </t>
+  </si>
+  <si>
+    <t>FUJITSU LH 532</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/129875293560643750.jpg</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 560 Ti 448</t>
+  </si>
+  <si>
+    <t>500 GB</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>FUJITSU P771</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/129875295015175000.jpg</t>
+  </si>
+  <si>
+    <t>ATI Radeon HD 5970</t>
+  </si>
+  <si>
+    <t>500GB </t>
+  </si>
+  <si>
+    <t>FUJITSU LIFEBOOK LH 531</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/129875294291737500.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core i3-3110M</t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7640G</t>
+  </si>
+  <si>
+    <t>FUJITSU SH761 </t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/129875295602206250.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i5-4690 </t>
+  </si>
+  <si>
+    <t>ATI Mobility Radeon HD 5650/5750</t>
+  </si>
+  <si>
+    <t>640GB</t>
+  </si>
+  <si>
+    <t>Toshiba Portege Z930-2037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-2670QM </t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7990</t>
+  </si>
+  <si>
+    <t>Gigabyte Ultrabook U2440N</t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130074671231173347.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i5-760 </t>
+  </si>
+  <si>
+    <t>AMD Radeon HD 7870 XT</t>
+  </si>
+  <si>
+    <t>Samsung Series 3 (NP300E4X-A06VN)</t>
+  </si>
+  <si>
+    <t>Intel Core i3-3240</t>
+  </si>
+  <si>
+    <t>Samsung Series 5 NP535U3X-A02VN AMD </t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/130113397510001735.jpg</t>
+  </si>
+  <si>
+    <t>Dual-Core A6-4455M</t>
+  </si>
+  <si>
+    <t>SONY VAIO Fit 14E SVF14328SGW </t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 5000</t>
+  </si>
+  <si>
+    <t>SONY VAIO Fit 15E SVF15328SG </t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/SVF16.jpeg</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 4200 Mobile</t>
+  </si>
+  <si>
+    <t>Sony Vaio SVS13132CVW </t>
+  </si>
+  <si>
+    <t>http://laptopno1.com/images/Products/SVS13132CVW-2.jpg</t>
+  </si>
+  <si>
+    <t>Intel Core i5-3230M </t>
+  </si>
+  <si>
+    <t>Intel Graphic HD4000</t>
+  </si>
+  <si>
+    <t>17.3"</t>
+  </si>
+  <si>
+    <t>500GB</t>
+  </si>
+  <si>
+    <t>128GB SSD</t>
+  </si>
+  <si>
+    <t>2 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6GB </t>
+  </si>
+  <si>
+    <t>15.6"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách Laptop </t>
+  </si>
+  <si>
+    <t>Sony Vaio VGN-FW480J </t>
+  </si>
+  <si>
+    <t>Sony Vaio VTN-HZ123Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,12 +262,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
+      <color rgb="FF495456"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,21 +298,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,258 +638,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <v>27999000</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10699000</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2">
+        <v>14490000</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2">
+        <v>15899000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="2">
+        <v>14490000</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10790000</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10790000</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10790000</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10790000</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2">
+        <v>12490000</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2">
+        <v>12490000</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12490000</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2">
+        <v>12490000</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2">
+        <v>12490000</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>750</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>500</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8">
-        <v>500</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
+      <c r="I18" s="2">
+        <v>12490001</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
